--- a/gamelist.xlsx
+++ b/gamelist.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weilu\Desktop\handball\handball_record\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890A65AF-2B0C-4914-9BA2-3A20AD3DB2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C184E1-8C94-4493-9F48-A40045263655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{DC1D1C70-32D2-4AB5-887E-73CA0C122F2C}"/>
+    <workbookView xWindow="9068" yWindow="4343" windowWidth="7499" windowHeight="5999" xr2:uid="{DC1D1C70-32D2-4AB5-887E-73CA0C122F2C}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -978,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF6DA9B-E718-4D0F-B0C3-50C34B7F6F74}">
   <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
